--- a/Document/Task báo cáo.xlsx
+++ b/Document/Task báo cáo.xlsx
@@ -139,9 +139,6 @@
     <t xml:space="preserve">Bổ sung các sơ đồ trạng thái còn thiếu trong file bài tập Trang đã làm và up lên drive </t>
   </si>
   <si>
-    <t>Để Trang kiếm lại yêu cầu sau</t>
-  </si>
-  <si>
     <t>YÊU CẦU KHÁC</t>
   </si>
   <si>
@@ -152,6 +149,10 @@
   </si>
   <si>
     <t>Hiếu Minh</t>
+  </si>
+  <si>
+    <t>Slide chương 5, trang 24, chuyển sang  mô hình quan hệ..
+Link down slide: https://docs.google.com/viewer?a=v&amp;pid=sites&amp;srcid=cHR2dW9uZy5jb218a3ktdGh1YXQtdGhpZXQta2UtcGhhbi1tZW18Z3g6MmI2NzZkN2M0NTNjNGFiYw</t>
   </si>
 </sst>
 </file>
@@ -297,15 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,12 +313,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -334,21 +320,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -370,6 +341,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,7 +657,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,14 +671,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -699,29 +700,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>0</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="28">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -733,25 +734,25 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -764,10 +765,10 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -780,8 +781,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
@@ -792,8 +793,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
@@ -803,19 +804,19 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="14" t="s">
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -823,7 +824,7 @@
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -835,23 +836,23 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+    <row r="13" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -859,7 +860,7 @@
       <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -872,10 +873,10 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="28">
         <v>7</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -887,19 +888,19 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="14" t="s">
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -907,27 +908,27 @@
       <c r="A17" s="5">
         <v>8</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
@@ -959,59 +960,59 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="C25" s="19" t="s">
+    <row r="25" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="C25" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="C26" s="16" t="s">
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="C26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="31" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="C31" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="31" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="C31" s="32" t="s">
+      <c r="D31" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="C32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="C32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Document/Task báo cáo.xlsx
+++ b/Document/Task báo cáo.xlsx
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
